--- a/231207/menu2023_12.xlsx
+++ b/231207/menu2023_12.xlsx
@@ -483,115 +483,115 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>오므라이스</t>
+          <t>삼겹살카레</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>김치볶음밥</t>
+          <t>알밥</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김치볶음밥 돈까스</t>
+          <t>제육에그덮밥</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>프랭크 수제 버거</t>
+          <t>싸이버거</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>토마토 스파게티</t>
+          <t>타코벨</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>꼬막비빔밥</t>
+          <t>참치도시락</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>슈퍼두퍼 슈퍼싱글버거</t>
+          <t>맥도날드</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>맘스터치</t>
+          <t>수작돈까스 반상</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>비빔밥</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>알밥</t>
+          <t>크림새우도리아</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>왕카레돈까스덮밥</t>
+          <t>오므라이스</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>더블불고기버거세트</t>
+          <t>신전떡볶이+컵밥</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김치가츠동</t>
+          <t>삼겹살 냉면</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>차돌김치찌개</t>
+          <t>메가치킨제육</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>삼겹살카레</t>
+          <t>왕카레돈까스덮밥</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>베이컨 매콤 파스타</t>
+          <t>짬뽕밥</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>미국식중화도시락 고투웍</t>
+          <t>프랭크 수제 버거</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>추억의 도시락</t>
+          <t>데미함박에그덮밥</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>브라운돈까스</t>
+          <t>가츠동</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>맥도날드</t>
+          <t>나시고랭</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>베이컨볶음밥</t>
+          <t>짬짜면</t>
         </is>
       </c>
     </row>
